--- a/bh3/545817363240747250_2021-07-10_20-50-08.xlsx
+++ b/bh3/545817363240747250_2021-07-10_20-50-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:28:18</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44395.81131944444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4882263823</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:56:13</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44391.62237268518</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:10:11</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44391.54873842592</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -768,10 +778,8 @@
           <t>4882263823</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:08:49</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44391.54778935185</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -839,10 +847,8 @@
           <t>4882350715</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:42:52</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44390.65476851852</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>4895553398</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:55:43</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44389.87202546297</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>4895553398</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:41:20</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44389.82037037037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1061,10 +1063,8 @@
           <t>4893189779</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-12 13:08:44</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44389.54773148148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1136,10 +1136,8 @@
           <t>4893067112</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-12 12:50:19</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44389.53494212963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1215,10 +1213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-11 23:52:11</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44388.99457175926</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1278,10 +1274,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-11 22:12:03</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44388.92503472222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1349,10 +1343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:18:09</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44388.88760416667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1420,10 +1412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:13:10</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44388.88414351852</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1487,10 +1477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:55:18</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44388.83006944445</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1554,10 +1542,8 @@
           <t>4888318768</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:45:42</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44388.78173611111</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1625,10 +1611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-11 16:17:28</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44388.6787962963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1700,10 +1684,8 @@
           <t>4887399412</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-11 16:16:14</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44388.67793981481</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1767,10 +1749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-11 15:00:32</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44388.62537037037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1846,10 +1826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-11 13:26:40</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44388.56018518518</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1921,10 +1899,8 @@
           <t>4882279304</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:23:33</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44388.51635416667</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1988,10 +1964,8 @@
           <t>4883026928</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:11:12</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44388.50777777778</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2060,10 +2034,8 @@
           <t>4885689198</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:45:03</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44388.48961805556</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2139,10 +2111,8 @@
           <t>4885689198</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:26:00</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44388.47638888889</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2206,10 +2176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:23:02</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44388.47432870371</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2281,10 +2249,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:04:51</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44388.46170138889</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2360,10 +2326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:44:29</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44388.44755787037</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
@@ -2427,10 +2391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:34:04</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44388.44032407407</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2498,10 +2460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:53:02</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44388.41182870371</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2569,10 +2529,8 @@
           <t>4885170220</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:50:26</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44388.41002314815</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2648,10 +2606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:34:49</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44388.39917824074</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2719,10 +2675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:46:27</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44388.36559027778</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2794,10 +2748,8 @@
           <t>4884844791</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:35:50</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44388.35821759259</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2873,10 +2825,8 @@
           <t>4883026928</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:13:08</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44388.34245370371</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2944,10 +2894,8 @@
           <t>4882471838</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:52:26</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44388.3280787037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3042,10 +2990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:06:47</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44388.29637731481</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3117,10 +3063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:02:54</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44388.29368055556</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3184,10 +3128,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-11 06:58:58</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44388.29094907407</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3259,10 +3201,8 @@
           <t>4882350715</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-11 06:18:30</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44388.26284722222</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3338,10 +3278,8 @@
           <t>4884512586</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-11 05:54:03</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44388.24586805556</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3405,10 +3343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-11 05:50:03</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44388.24309027778</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
@@ -3476,10 +3412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-11 05:38:08</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44388.23481481482</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3551,10 +3485,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-11 04:12:01</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44388.17501157407</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3630,10 +3562,8 @@
           <t>4883026928</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-11 03:03:39</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44388.12753472223</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3703,10 +3633,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-11 03:00:04</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44388.1250462963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3785,10 +3713,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:45:09</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44388.1146875</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3860,10 +3786,8 @@
           <t>4884194622</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:05:41</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44388.08728009259</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3927,10 +3851,8 @@
           <t>4882323736</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:00:47</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44388.08387731481</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4007,10 +3929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:45:09</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44388.07302083333</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -4078,10 +3998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:27:15</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44388.06059027778</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4149,10 +4067,8 @@
           <t>4884036893</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:17:47</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44388.05401620371</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4220,10 +4136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:10:25</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44388.04890046296</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4301,10 +4215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:09:00</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44388.04791666667</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -4376,10 +4288,8 @@
           <t>4883947282</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:57:48</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44388.04013888889</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4455,10 +4365,8 @@
           <t>4883455582</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:39:00</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44388.02708333333</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4518,10 +4426,8 @@
           <t>4883455582</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:30:15</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44388.02100694444</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4597,10 +4503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:29:44</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44388.02064814815</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4668,10 +4572,8 @@
           <t>4882572723</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:14:42</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44388.01020833333</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4739,10 +4641,8 @@
           <t>4883720626</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:14:14</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44388.00988425926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4810,10 +4710,8 @@
           <t>4883140904</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:13:44</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44388.00953703704</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4877,10 +4775,8 @@
           <t>4883711737</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:13:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44388.00905092592</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4948,10 +4844,8 @@
           <t>4883706256</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:12:13</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44388.00848379629</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5019,10 +4913,8 @@
           <t>4883706087</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:12:08</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44388.00842592592</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5086,10 +4978,8 @@
           <t>4883689577</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:10:30</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44388.00729166667</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5157,10 +5047,8 @@
           <t>4883455582</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:09:00</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44388.00625</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5220,10 +5108,8 @@
           <t>4883455582</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:06:05</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44388.00422453704</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5299,10 +5185,8 @@
           <t>4882276866</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:05:52</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44388.00407407407</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5374,10 +5258,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:01:41</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44388.00116898148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5441,10 +5323,8 @@
           <t>4883500719</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:40:21</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.98635416666</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5509,10 +5389,8 @@
           <t>4882985848</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:37:53</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.9846412037</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5584,10 +5462,8 @@
           <t>4883230926</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:35:29</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.98297453704</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5663,10 +5539,8 @@
           <t>4883460797</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:35:17</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.98283564814</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5734,10 +5608,8 @@
           <t>4883455582</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:34:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.98224537037</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5797,10 +5669,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:32:13</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.98070601852</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5872,10 +5742,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:30:49</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.9797337963</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5935,10 +5803,8 @@
           <t>4883430586</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:30:40</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.97962962963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6002,10 +5868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:29:07</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.97855324074</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6069,10 +5933,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:28:32</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.97814814815</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -6151,10 +6013,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:26:23</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.97665509259</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
@@ -6214,10 +6074,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:23:58</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.97497685185</v>
       </c>
       <c r="I80" t="n">
         <v>5</v>
@@ -6289,10 +6147,8 @@
           <t>4883332487</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:18:10</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.97094907407</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6368,10 +6224,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:17:00</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.97013888889</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6432,10 +6286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:15:11</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.96887731482</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6511,10 +6363,8 @@
           <t>4883140904</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:14:39</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.96850694445</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6582,10 +6432,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:08:14</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.96405092593</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6657,10 +6505,8 @@
           <t>4883247011</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:06:49</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.96306712963</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6724,10 +6570,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:06:34</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.96289351852</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6799,10 +6643,8 @@
           <t>4883230926</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:06:26</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.96280092592</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6878,10 +6720,8 @@
           <t>4883140904</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:06:19</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.96271990741</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6949,10 +6789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:05:12</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.96194444445</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7017,10 +6855,8 @@
           <t>4883230926</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:04:37</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.96153935185</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7096,10 +6932,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:04:02</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.96113425926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7171,10 +7005,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:02:26</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.96002314815</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7243,10 +7075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:02:01</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.9597337963</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7306,10 +7136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:54</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.95965277778</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7369,10 +7197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:48</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.95958333334</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7432,10 +7258,8 @@
           <t>4882932703</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:42</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.95951388889</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7499,10 +7323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:40</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.95949074074</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7569,10 +7391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:35</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.95943287037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7632,10 +7452,8 @@
           <t>4882352185</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:18</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.95923611111</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7699,10 +7517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:17</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.95922453704</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7766,10 +7582,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:16</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.95921296296</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7837,10 +7651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:00:47</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.95887731481</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -7908,10 +7720,8 @@
           <t>4882932703</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:00:41</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.95880787037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7983,10 +7793,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:59:51</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.95822916667</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8054,10 +7862,8 @@
           <t>4882932703</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:56:44</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.95606481482</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8125,10 +7931,8 @@
           <t>4882932703</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:56:29</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.9558912037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8196,10 +8000,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:55:43</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.95535879629</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8259,10 +8061,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:54:06</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.95423611111</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8330,10 +8130,8 @@
           <t>4882932703</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:53:33</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.95385416667</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8409,10 +8207,8 @@
           <t>4882932703</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:53:03</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.95350694445</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8484,10 +8280,8 @@
           <t>4883140904</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:51:48</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.95263888889</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8563,10 +8357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:51:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.95234953704</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8642,10 +8434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:51:16</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.95226851852</v>
       </c>
       <c r="I114" t="n">
         <v>8</v>
@@ -8713,10 +8503,8 @@
           <t>4882932703</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:51:09</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.9521875</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8795,10 +8583,8 @@
           <t>4883130406</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:51:00</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.95208333333</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8874,10 +8660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:50:00</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.95138888889</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -8949,10 +8733,8 @@
           <t>4883107926</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:48:26</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.95030092593</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9028,10 +8810,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:47:48</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.94986111111</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9107,10 +8887,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:44:58</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.94789351852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9182,10 +8960,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:43:55</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.94716435186</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9253,10 +9029,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:43:22</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.94678240741</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -9316,10 +9090,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:42:55</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.94646990741</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9391,10 +9163,8 @@
           <t>4882985848</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:41:55</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.94577546296</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9466,10 +9236,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:41:37</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.94556712963</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9541,10 +9309,8 @@
           <t>4882395240</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:40:59</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.94512731482</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9620,10 +9386,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:40:13</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.94459490741</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9687,10 +9451,8 @@
           <t>4883026928</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:37:38</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.94280092593</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9758,10 +9520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:37:08</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.9424537037</v>
       </c>
       <c r="I129" t="n">
         <v>15</v>
@@ -9825,10 +9585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:36:30</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.94201388889</v>
       </c>
       <c r="I130" t="n">
         <v>8</v>
@@ -9904,10 +9662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:36:07</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.94174768519</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9983,10 +9739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:35:12</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.94111111111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10054,10 +9808,8 @@
           <t>4882395240</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:33:48</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.94013888889</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10121,10 +9873,8 @@
           <t>4882991693</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:33:22</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.93983796296</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10188,10 +9938,8 @@
           <t>4882985848</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:31:59</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.93887731482</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10267,10 +10015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:31:10</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.93831018519</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10334,10 +10080,8 @@
           <t>4882969700</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:30:52</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.93810185185</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10413,10 +10157,8 @@
           <t>4882975273</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:30:46</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.93803240741</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -10484,10 +10226,8 @@
           <t>4882967667</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:30:05</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.93755787037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10559,10 +10299,8 @@
           <t>4882252624</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:29:53</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44387.93741898148</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10638,10 +10376,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:29:37</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44387.9372337963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10709,10 +10445,8 @@
           <t>4882357597</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:28:32</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44387.93648148148</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10784,10 +10518,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:28:22</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44387.93636574074</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10859,10 +10591,8 @@
           <t>4882394635</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:27:55</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44387.93605324074</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10934,10 +10664,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:27:40</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44387.93587962963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11013,10 +10741,8 @@
           <t>4882795515</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:26:15</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44387.93489583334</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11088,10 +10814,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:25:56</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44387.93467592593</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11163,10 +10887,8 @@
           <t>4882932703</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:25:34</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44387.9344212963</v>
       </c>
       <c r="I148" t="n">
         <v>10</v>
@@ -11230,10 +10952,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:23:43</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44387.93313657407</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11309,10 +11029,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:22:46</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44387.93247685185</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11376,10 +11094,8 @@
           <t>4882781787</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:20:49</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44387.93112268519</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11443,10 +11159,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:20:22</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44387.93081018519</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11506,10 +11220,8 @@
           <t>4882255394</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:19:35</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44387.9302662037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11586,10 +11298,8 @@
           <t>4882350715</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:19:26</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44387.93016203704</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11661,10 +11371,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:18:59</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44387.92984953704</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11740,10 +11448,8 @@
           <t>4882858683</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:16:47</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44387.92832175926</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11811,10 +11517,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:16:46</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44387.92831018518</v>
       </c>
       <c r="I157" t="n">
         <v>10</v>
@@ -11882,10 +11586,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:16:36</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44387.92819444444</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11953,10 +11655,8 @@
           <t>4882788989</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:15:37</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44387.92751157407</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12032,10 +11732,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:15:03</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44387.92711805556</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12103,10 +11801,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:14:49</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44387.92695601852</v>
       </c>
       <c r="I161" t="n">
         <v>9</v>
@@ -12166,10 +11862,8 @@
           <t>4882788989</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:14:26</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44387.92668981481</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12237,10 +11931,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:13:00</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44387.92569444444</v>
       </c>
       <c r="I163" t="n">
         <v>14</v>
@@ -12312,10 +12004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:12:56</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44387.92564814815</v>
       </c>
       <c r="I164" t="n">
         <v>13</v>
@@ -12383,10 +12073,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:12:11</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44387.92512731482</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12462,10 +12150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:11:58</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44387.92497685185</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -12533,10 +12219,8 @@
           <t>4882825004</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:11:18</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44387.92451388889</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12604,10 +12288,8 @@
           <t>4882814371</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:11:03</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44387.92434027778</v>
       </c>
       <c r="I168" t="n">
         <v>21</v>
@@ -12667,10 +12349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:10:57</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44387.92427083333</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12738,10 +12418,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:10:32</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44387.92398148148</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12817,10 +12495,8 @@
           <t>4882270781</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:08:10</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44387.92233796296</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12892,10 +12568,8 @@
           <t>4882795515</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:07:34</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44387.9219212963</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -12971,10 +12645,8 @@
           <t>4882788989</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:07:20</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44387.92175925926</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13050,10 +12722,8 @@
           <t>4882781787</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:06:07</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44387.92091435185</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13129,10 +12799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:05:55</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44387.92077546296</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -13200,10 +12868,8 @@
           <t>4882350715</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:05:33</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44387.92052083334</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13275,10 +12941,8 @@
           <t>4882323736</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:05:22</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44387.92039351852</v>
       </c>
       <c r="I177" t="n">
         <v>5</v>
@@ -13354,10 +13018,8 @@
           <t>4882774303</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:05:21</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44387.92038194444</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13433,10 +13095,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:05:07</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44387.92021990741</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13512,10 +13172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:05:06</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44387.92020833334</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13591,10 +13249,8 @@
           <t>4882357597</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:04:56</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44387.92009259259</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13666,10 +13322,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:03:59</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44387.91943287037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13745,10 +13399,8 @@
           <t>4882584511</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:03:47</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44387.91929398148</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13820,10 +13472,8 @@
           <t>4882584511</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:02:37</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44387.9184837963</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13895,10 +13545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:02:21</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44387.91829861111</v>
       </c>
       <c r="I185" t="n">
         <v>6</v>
@@ -13970,10 +13618,8 @@
           <t>4882756681</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:02:14</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44387.9182175926</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14049,10 +13695,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:01:38</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44387.91780092593</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14128,10 +13772,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:58:34</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44387.91567129629</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14200,10 +13842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:56:58</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44387.91456018519</v>
       </c>
       <c r="I189" t="n">
         <v>50</v>
@@ -14271,10 +13911,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:56:19</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44387.9141087963</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14350,10 +13988,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:54:32</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44387.91287037037</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14421,10 +14057,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:54:15</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44387.91267361111</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14500,10 +14134,8 @@
           <t>4882584511</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:54:11</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44387.91262731481</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14575,10 +14207,8 @@
           <t>4882584511</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:53:34</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44387.91219907408</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14650,10 +14280,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:53:17</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44387.91200231481</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14729,10 +14357,8 @@
           <t>4882677693</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:52:36</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44387.91152777777</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14792,10 +14418,8 @@
           <t>4882350715</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:52:35</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44387.91151620371</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14867,10 +14491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:51:48</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44387.91097222222</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -14942,10 +14564,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:50:40</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44387.91018518519</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -15013,10 +14633,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:50:39</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44387.91017361111</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15084,10 +14702,8 @@
           <t>4882326568</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:50:26</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44387.91002314815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15156,10 +14772,8 @@
           <t>4882584511</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:50:16</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44387.9099074074</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15237,10 +14851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:48:57</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44387.90899305556</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15304,10 +14916,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:48:30</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44387.90868055556</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15375,10 +14985,8 @@
           <t>4882634213</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:47:09</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44387.90774305556</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15454,10 +15062,8 @@
           <t>4882625661</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:44:58</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44387.90622685185</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15525,10 +15131,8 @@
           <t>4882614953</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:44:35</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44387.90596064815</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15600,10 +15204,8 @@
           <t>4882616643</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:44:06</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44387.905625</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15671,10 +15273,8 @@
           <t>4882584511</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:43:16</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44387.9050462963</v>
       </c>
       <c r="I209" t="n">
         <v>4</v>
@@ -15742,10 +15342,8 @@
           <t>4882611159</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:43:09</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44387.90496527778</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15813,10 +15411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:42:36</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44387.90458333334</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15880,10 +15476,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:42:05</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44387.90422453704</v>
       </c>
       <c r="I212" t="n">
         <v>9</v>
@@ -15947,10 +15541,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:41:48</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44387.90402777777</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16018,10 +15610,8 @@
           <t>4882584511</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:40:38</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44387.90321759259</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16093,10 +15683,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:38:54</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44387.90201388889</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16172,10 +15760,8 @@
           <t>4882572723</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:38:24</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44387.90166666666</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16251,10 +15837,8 @@
           <t>4882565593</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:37:16</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44387.90087962963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16322,10 +15906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:37:10</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44387.90081018519</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16389,10 +15971,8 @@
           <t>4882552504</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:36:07</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44387.90008101852</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16460,10 +16040,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:35:25</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44387.89959490741</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16531,10 +16109,8 @@
           <t>4882263823</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:35:25</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44387.89959490741</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16606,10 +16182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:33:32</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44387.89828703704</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16685,10 +16259,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:33:28</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44387.89824074074</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16756,10 +16328,8 @@
           <t>4882532645</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:32:55</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44387.8978587963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16831,10 +16401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:32:18</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44387.89743055555</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16895,10 +16463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:31:22</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44387.89678240741</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16970,10 +16536,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:31:05</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44387.89658564814</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17041,10 +16605,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:30:35</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44387.89623842593</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17120,10 +16682,8 @@
           <t>4882512794</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:30:29</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44387.89616898148</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17195,10 +16755,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:30:14</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44387.89599537037</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17274,10 +16832,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:30:10</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44387.89594907407</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17341,10 +16897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:30:04</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44387.89587962963</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17416,10 +16970,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:29:59</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44387.89582175926</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17479,10 +17031,8 @@
           <t>4882394635</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:29:51</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44387.89572916667</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17558,10 +17108,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:29:36</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44387.89555555556</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17629,10 +17177,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:29:04</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44387.89518518518</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17708,10 +17254,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:28:07</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44387.89452546297</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17787,10 +17331,8 @@
           <t>4882500852</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:27:51</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44387.89434027778</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17866,10 +17408,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:27:35</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44387.8941550926</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17945,10 +17485,8 @@
           <t>4882491050</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:27:27</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44387.8940625</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18024,10 +17562,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:26:48</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44387.89361111111</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18103,10 +17639,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:26:43</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44387.89355324074</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18174,10 +17708,8 @@
           <t>4882487132</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:26:25</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44387.89334490741</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18245,10 +17777,8 @@
           <t>4882474532</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:25:27</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44387.89267361111</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18324,10 +17854,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:25:23</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44387.89262731482</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18399,10 +17927,8 @@
           <t>4882394635</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:25:01</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44387.89237268519</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18476,10 +18002,8 @@
           <t>4882471838</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:24:27</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44387.89197916666</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18555,10 +18079,8 @@
           <t>4882462903</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:24:08</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44387.89175925926</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18626,10 +18148,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:23:18</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44387.89118055555</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18697,10 +18217,8 @@
           <t>4882326568</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:22:54</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44387.89090277778</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18772,10 +18290,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:22:30</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44387.890625</v>
       </c>
       <c r="I251" t="n">
         <v>7</v>
@@ -18851,10 +18367,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:21:25</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44387.88987268518</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18930,10 +18444,8 @@
           <t>4882326568</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:21:20</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44387.88981481481</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19005,10 +18517,8 @@
           <t>4882438380</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:20:18</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44387.88909722222</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19080,10 +18590,8 @@
           <t>4882437565</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:19:58</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44387.88886574074</v>
       </c>
       <c r="I255" t="n">
         <v>21</v>
@@ -19152,10 +18660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:19:53</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44387.88880787037</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19215,10 +18721,8 @@
           <t>4882432307</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:19:45</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44387.88871527778</v>
       </c>
       <c r="I257" t="n">
         <v>5</v>
@@ -19282,10 +18786,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:19:32</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44387.88856481481</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19361,10 +18863,8 @@
           <t>4882436457</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:19:31</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44387.88855324074</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19440,10 +18940,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:19:01</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44387.88820601852</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19511,10 +19009,8 @@
           <t>4882394635</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:18:24</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44387.88777777777</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19590,10 +19086,8 @@
           <t>4882357597</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:18:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44387.88767361111</v>
       </c>
       <c r="I262" t="n">
         <v>10</v>
@@ -19665,10 +19159,8 @@
           <t>4882289900</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:18:08</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44387.88759259259</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19745,10 +19237,8 @@
           <t>4882422361</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:17:46</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44387.88733796297</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19824,10 +19314,8 @@
           <t>4882416718</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:17:30</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44387.88715277778</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19887,10 +19375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:55</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44387.88674768519</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19954,10 +19440,8 @@
           <t>4882394635</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:55</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44387.88674768519</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -20025,10 +19509,8 @@
           <t>4882352185</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:53</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44387.88672453703</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20104,10 +19586,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:45</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44387.88663194444</v>
       </c>
       <c r="I269" t="n">
         <v>30</v>
@@ -20183,10 +19663,8 @@
           <t>4882411416</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:44</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44387.88662037037</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20258,10 +19736,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:32</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44387.88648148148</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20329,10 +19805,8 @@
           <t>4882333949</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:23</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44387.88637731481</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20404,10 +19878,8 @@
           <t>4882410316</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:19</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44387.88633101852</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20479,10 +19951,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:12</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44387.88625</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20554,10 +20024,8 @@
           <t>4882403430</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:16:03</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44387.88614583333</v>
       </c>
       <c r="I275" t="n">
         <v>12</v>
@@ -20634,10 +20102,8 @@
           <t>4882398551</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:38</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44387.88585648148</v>
       </c>
       <c r="I276" t="n">
         <v>22</v>
@@ -20705,10 +20171,8 @@
           <t>4882279870</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:36</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44387.88583333333</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20785,10 +20249,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:35</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44387.88582175926</v>
       </c>
       <c r="I278" t="n">
         <v>3</v>
@@ -20860,10 +20322,8 @@
           <t>4882394635</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:34</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44387.88581018519</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20939,10 +20399,8 @@
           <t>4882326568</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:30</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44387.88576388889</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21014,10 +20472,8 @@
           <t>4882274483</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:14</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44387.8855787037</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21094,10 +20550,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:10</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44387.88553240741</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21173,10 +20627,8 @@
           <t>4882333949</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:00</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44387.88541666666</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21248,10 +20700,8 @@
           <t>4882395240</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:14:57</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44387.88538194444</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21319,10 +20769,8 @@
           <t>4882394635</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:14:39</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44387.88517361111</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21390,10 +20838,8 @@
           <t>4882395240</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:14:24</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44387.885</v>
       </c>
       <c r="I286" t="n">
         <v>5</v>
@@ -21465,10 +20911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:14:11</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44387.88484953704</v>
       </c>
       <c r="I287" t="n">
         <v>2</v>
@@ -21544,10 +20988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:14:05</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44387.88478009259</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21623,10 +21065,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:14:04</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44387.88476851852</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21698,10 +21138,8 @@
           <t>4882326568</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:14:00</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44387.88472222222</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21773,10 +21211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:57</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44387.8846875</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21852,10 +21288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:51</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44387.88461805556</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21919,10 +21353,8 @@
           <t>4882392565</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:49</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44387.88459490741</v>
       </c>
       <c r="I293" t="n">
         <v>47</v>
@@ -21994,10 +21426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:32</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44387.88439814815</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22061,10 +21491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:18</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44387.88423611111</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22132,10 +21560,8 @@
           <t>4882326568</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:12:46</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44387.88386574074</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22211,10 +21637,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:12:08</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44387.88342592592</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22286,10 +21710,8 @@
           <t>4882352185</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:11:55</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44387.88327546296</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22357,10 +21779,8 @@
           <t>4882364329</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:11:17</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44387.88283564815</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22436,10 +21856,8 @@
           <t>4882371555</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:11:12</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44387.88277777778</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22503,10 +21921,8 @@
           <t>4882371362</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:11:07</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44387.88271990741</v>
       </c>
       <c r="I301" t="n">
         <v>24</v>
@@ -22578,10 +21994,8 @@
           <t>4882366692</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:11:05</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44387.88269675926</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22657,10 +22071,8 @@
           <t>4882280472</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:10:55</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44387.88258101852</v>
       </c>
       <c r="I303" t="n">
         <v>2</v>
@@ -22736,10 +22148,8 @@
           <t>4882366225</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:10:53</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44387.88255787037</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22803,10 +22213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:10:52</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44387.8825462963</v>
       </c>
       <c r="I305" t="n">
         <v>19</v>
@@ -22882,10 +22290,8 @@
           <t>4882364329</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:10:23</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44387.88221064815</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22953,10 +22359,8 @@
           <t>4882329942</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:10:13</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44387.88209490741</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23020,10 +22424,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:54</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44387.881875</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23095,10 +22497,8 @@
           <t>4882357597</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:49</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44387.88181712963</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23174,10 +22574,8 @@
           <t>4882310198</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:27</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44387.8815625</v>
       </c>
       <c r="I310" t="n">
         <v>6</v>
@@ -23249,10 +22647,8 @@
           <t>4882348213</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:26</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44387.88155092593</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23324,10 +22720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:23</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44387.88151620371</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23391,10 +22785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:20</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44387.88148148148</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23458,10 +22850,8 @@
           <t>4882356354</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:20</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44387.88148148148</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23529,10 +22919,8 @@
           <t>4882352185</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:11</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44387.88137731481</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23608,10 +22996,8 @@
           <t>4882351279</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:49</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44387.88112268518</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23683,10 +23069,8 @@
           <t>4882258702</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:44</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44387.88106481481</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23763,10 +23147,8 @@
           <t>4882350980</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:40</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44387.88101851852</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23842,10 +23224,8 @@
           <t>4882350715</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:34</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44387.88094907408</v>
       </c>
       <c r="I319" t="n">
         <v>17</v>
@@ -23913,10 +23293,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:33</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44387.8809375</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23988,10 +23366,8 @@
           <t>4882348213</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:10</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44387.8806712963</v>
       </c>
       <c r="I321" t="n">
         <v>2</v>
@@ -24055,10 +23431,8 @@
           <t>4882333949</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:08</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44387.88064814815</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24118,10 +23492,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:46</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44387.88039351852</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24193,10 +23565,8 @@
           <t>4882263823</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:40</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44387.88032407407</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24272,10 +23642,8 @@
           <t>4882310198</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:38</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44387.88030092593</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -24343,10 +23711,8 @@
           <t>4882334251</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:25</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44387.88015046297</v>
       </c>
       <c r="I326" t="n">
         <v>8</v>
@@ -24418,10 +23784,8 @@
           <t>4882346102</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:22</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44387.88011574074</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24485,10 +23849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:11</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44387.87998842593</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24548,10 +23910,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:10</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44387.87997685185</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24623,10 +23983,8 @@
           <t>4882340449</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:57</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44387.87982638889</v>
       </c>
       <c r="I330" t="n">
         <v>11</v>
@@ -24690,10 +24048,8 @@
           <t>4882340442</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:57</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44387.87982638889</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24757,10 +24113,8 @@
           <t>4882326568</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:51</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44387.87975694444</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24820,10 +24174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:45</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44387.8796875</v>
       </c>
       <c r="I333" t="n">
         <v>5</v>
@@ -24899,10 +24251,8 @@
           <t>4882329942</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:44</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44387.87967592593</v>
       </c>
       <c r="I334" t="n">
         <v>3</v>
@@ -24974,10 +24324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:43</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44387.87966435185</v>
       </c>
       <c r="I335" t="n">
         <v>10</v>
@@ -25037,10 +24385,8 @@
           <t>4882334251</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:41</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44387.8796412037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25108,10 +24454,8 @@
           <t>4882333949</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:34</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44387.87956018518</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25183,10 +24527,8 @@
           <t>4882277877</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:34</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44387.87956018518</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25250,10 +24592,8 @@
           <t>4882266120</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:45</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44387.87899305556</v>
       </c>
       <c r="I339" t="n">
         <v>5</v>
@@ -25325,10 +24665,8 @@
           <t>4882323748</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:38</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44387.87891203703</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -25404,10 +24742,8 @@
           <t>4882323736</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:37</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44387.87890046297</v>
       </c>
       <c r="I341" t="n">
         <v>14</v>
@@ -25479,10 +24815,8 @@
           <t>4882326568</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:23</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44387.87873842593</v>
       </c>
       <c r="I342" t="n">
         <v>4</v>
@@ -25554,10 +24888,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:22</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44387.87872685185</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25629,10 +24961,8 @@
           <t>4882323019</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:19</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44387.87869212963</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25692,10 +25022,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:55</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44387.87841435185</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25767,10 +25095,8 @@
           <t>4882288619</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:53</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44387.8783912037</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25830,10 +25156,8 @@
           <t>4882320522</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:15</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44387.87795138889</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25901,10 +25225,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:04</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44387.87782407407</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25976,10 +25298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:02</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44387.87780092593</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26053,10 +25373,8 @@
           <t>4882288619</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:50</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44387.87766203703</v>
       </c>
       <c r="I350" t="n">
         <v>3</v>
@@ -26120,10 +25438,8 @@
           <t>4882312739</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:50</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44387.87766203703</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26195,10 +25511,8 @@
           <t>4882305478</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:48</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44387.87763888889</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26270,10 +25584,8 @@
           <t>4882312533</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:45</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44387.87760416666</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26341,10 +25653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:39</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44387.87753472223</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26408,10 +25718,8 @@
           <t>4882311289</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:15</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44387.87725694444</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26483,10 +25791,8 @@
           <t>4882311202</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:13</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44387.87723379629</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26554,10 +25860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:01</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44387.87709490741</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26625,10 +25929,8 @@
           <t>4882310653</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:00</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44387.87708333333</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26704,10 +26006,8 @@
           <t>4882288619</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:59</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44387.87707175926</v>
       </c>
       <c r="I359" t="n">
         <v>4</v>
@@ -26771,10 +26071,8 @@
           <t>4882310198</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:49</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44387.87695601852</v>
       </c>
       <c r="I360" t="n">
         <v>3</v>
@@ -26842,10 +26140,8 @@
           <t>4882305365</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:38</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44387.8768287037</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26905,10 +26201,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:36</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44387.87680555556</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26980,10 +26274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:33</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44387.87677083333</v>
       </c>
       <c r="I363" t="n">
         <v>8</v>
@@ -27043,10 +26335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:28</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44387.87671296296</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27114,10 +26404,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:18</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44387.87659722222</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27189,10 +26477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:15</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44387.8765625</v>
       </c>
       <c r="I366" t="n">
         <v>753</v>
@@ -27268,10 +26554,8 @@
           <t>4882305478</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:06</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44387.87645833333</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27347,10 +26631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:05</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44387.87644675926</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27418,10 +26700,8 @@
           <t>4882305365</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:03</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44387.87642361111</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27485,10 +26765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:56</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44387.87634259259</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27556,10 +26834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:55</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44387.87633101852</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27627,10 +26903,8 @@
           <t>4882301031</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:44</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44387.8762037037</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27706,10 +26980,8 @@
           <t>4882300923</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:42</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44387.87618055556</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27785,10 +27057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:39</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44387.87614583333</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27856,10 +27126,8 @@
           <t>4882258702</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:33</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44387.87607638889</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27927,10 +27195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:32</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44387.87606481482</v>
       </c>
       <c r="I376" t="n">
         <v>6</v>
@@ -28006,10 +27272,8 @@
           <t>4882296963</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:32</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44387.87606481482</v>
       </c>
       <c r="I377" t="n">
         <v>19</v>
@@ -28073,10 +27337,8 @@
           <t>4882296804</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:28</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44387.87601851852</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28136,10 +27398,8 @@
           <t>4882289900</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:19</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44387.87591435185</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28203,10 +27463,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:17</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44387.8758912037</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28278,10 +27536,8 @@
           <t>4882284536</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:15</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44387.87586805555</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28349,10 +27605,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:13</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44387.87584490741</v>
       </c>
       <c r="I382" t="n">
         <v>2</v>
@@ -28420,10 +27674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:06</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44387.87576388889</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28487,10 +27739,8 @@
           <t>4882293056</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:05</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44387.87575231482</v>
       </c>
       <c r="I384" t="n">
         <v>2</v>
@@ -28562,10 +27812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:02</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44387.87571759259</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28641,10 +27889,8 @@
           <t>4882292958</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:02</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44387.87571759259</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28720,10 +27966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:00</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44387.87569444445</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28799,10 +28043,8 @@
           <t>4882295618</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:00</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44387.87569444445</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28874,10 +28116,8 @@
           <t>4882288945</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:58</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44387.87567129629</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28953,10 +28193,8 @@
           <t>4882292718</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:56</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44387.87564814815</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -29024,10 +28262,8 @@
           <t>4882288619</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:51</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44387.87559027778</v>
       </c>
       <c r="I391" t="n">
         <v>2</v>
@@ -29099,10 +28335,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:51</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44387.87559027778</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29170,10 +28404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:45</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44387.87552083333</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29237,10 +28469,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:42</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44387.87548611111</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29309,10 +28539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:36</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44387.87541666667</v>
       </c>
       <c r="I395" t="n">
         <v>15</v>
@@ -29377,10 +28605,8 @@
           <t>4882284536</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:36</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44387.87541666667</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29452,10 +28678,8 @@
           <t>4882280472</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:34</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44387.87539351852</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29531,10 +28755,8 @@
           <t>4882291769</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:32</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44387.87537037037</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29610,10 +28832,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:28</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44387.87532407408</v>
       </c>
       <c r="I399" t="n">
         <v>6</v>
@@ -29681,10 +28901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:26</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44387.87530092592</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -29760,10 +28978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:25</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44387.87528935185</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29840,10 +29056,8 @@
           <t>4882258702</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:24</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44387.87527777778</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29920,10 +29134,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:17</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44387.87519675926</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29995,10 +29207,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:07</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44387.87508101852</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30066,10 +29276,8 @@
           <t>4882286673</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:05</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44387.87505787037</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30142,10 +29350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:04</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44387.8750462963</v>
       </c>
       <c r="I406" t="n">
         <v>79</v>
@@ -30222,10 +29428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:01</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44387.87501157408</v>
       </c>
       <c r="I407" t="n">
         <v>4</v>
@@ -30290,10 +29494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:59</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44387.87498842592</v>
       </c>
       <c r="I408" t="n">
         <v>273</v>
@@ -30369,10 +29571,8 @@
           <t>4882286399</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:59</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44387.87498842592</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30449,10 +29649,8 @@
           <t>4882282964</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:57</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44387.87496527778</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30528,10 +29726,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:56</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44387.8749537037</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30603,10 +29799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:52</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44387.87490740741</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30678,10 +29872,8 @@
           <t>4882282725</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:51</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44387.87489583333</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30757,10 +29949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:48</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44387.87486111111</v>
       </c>
       <c r="I414" t="n">
         <v>354</v>
@@ -30838,10 +30028,8 @@
           <t>4882263823</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:48</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44387.87486111111</v>
       </c>
       <c r="I415" t="n">
         <v>5</v>
@@ -30913,10 +30101,8 @@
           <t>4882282616</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:48</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44387.87486111111</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30985,10 +30171,8 @@
           <t>4882279870</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:44</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44387.87481481482</v>
       </c>
       <c r="I417" t="n">
         <v>2</v>
@@ -31052,10 +30236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:42</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44387.87479166667</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31123,10 +30305,8 @@
           <t>4882282320</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:41</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44387.87478009259</v>
       </c>
       <c r="I419" t="n">
         <v>4</v>
@@ -31198,10 +30378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:40</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44387.87476851852</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31269,10 +30447,8 @@
           <t>4882266120</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:35</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44387.87471064815</v>
       </c>
       <c r="I421" t="n">
         <v>39</v>
@@ -31344,10 +30520,8 @@
           <t>4882282013</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:34</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44387.87469907408</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -31423,10 +30597,8 @@
           <t>4882279304</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:29</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44387.87464120371</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31502,10 +30674,8 @@
           <t>4882280195</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:28</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44387.87462962963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31569,10 +30739,8 @@
           <t>4882274974</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:28</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44387.87462962963</v>
       </c>
       <c r="I425" t="n">
         <v>5</v>
@@ -31637,10 +30805,8 @@
           <t>4882279043</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:22</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44387.87456018518</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31717,10 +30883,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:19</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44387.87452546296</v>
       </c>
       <c r="I427" t="n">
         <v>14</v>
@@ -31796,10 +30960,8 @@
           <t>4882278919</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:19</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44387.87452546296</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31859,10 +31021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:16</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44387.87449074074</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31938,10 +31098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:16</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44387.87449074074</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32017,10 +31175,8 @@
           <t>4882274483</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:16</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44387.87449074074</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -32084,10 +31240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:15</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44387.87447916667</v>
       </c>
       <c r="I432" t="n">
         <v>13</v>
@@ -32151,10 +31305,8 @@
           <t>4882273719</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:15</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44387.87447916667</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32226,10 +31378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:11</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44387.87443287037</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32293,10 +31443,8 @@
           <t>4882274232</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:10</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44387.8744212963</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32372,10 +31520,8 @@
           <t>4882278513</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:09</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44387.87440972222</v>
       </c>
       <c r="I436" t="n">
         <v>5</v>
@@ -32443,10 +31589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:05</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44387.87436342592</v>
       </c>
       <c r="I437" t="n">
         <v>112</v>
@@ -32514,10 +31658,8 @@
           <t>4882273934</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:03</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44387.87434027778</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32589,10 +31731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:59</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44387.87429398148</v>
       </c>
       <c r="I439" t="n">
         <v>14</v>
@@ -32660,10 +31800,8 @@
           <t>4882273719</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:58</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44387.87428240741</v>
       </c>
       <c r="I440" t="n">
         <v>8</v>
@@ -32731,10 +31869,8 @@
           <t>4882278021</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:56</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44387.87425925926</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32794,10 +31930,8 @@
           <t>4882275295</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:56</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44387.87425925926</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32861,10 +31995,8 @@
           <t>4882280472</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:55</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44387.87424768518</v>
       </c>
       <c r="I443" t="n">
         <v>7</v>
@@ -32932,10 +32064,8 @@
           <t>4882277877</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:52</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44387.87421296296</v>
       </c>
       <c r="I444" t="n">
         <v>6</v>
@@ -33007,10 +32137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:50</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44387.87418981481</v>
       </c>
       <c r="I445" t="n">
         <v>4</v>
@@ -33086,10 +32214,8 @@
           <t>4882255394</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:49</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44387.87417824074</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33166,10 +32292,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:49</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44387.87417824074</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33245,10 +32369,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:49</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44387.87417824074</v>
       </c>
       <c r="I448" t="n">
         <v>9</v>
@@ -33320,10 +32442,8 @@
           <t>4882280195</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:48</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44387.87416666667</v>
       </c>
       <c r="I449" t="n">
         <v>6</v>
@@ -33387,10 +32507,8 @@
           <t>4882277661</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:46</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44387.87414351852</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33467,10 +32585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:39</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44387.8740625</v>
       </c>
       <c r="I451" t="n">
         <v>74</v>
@@ -33543,10 +32659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:35</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44387.87401620371</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33622,10 +32736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:35</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44387.87401620371</v>
       </c>
       <c r="I453" t="n">
         <v>66</v>
@@ -33697,10 +32809,8 @@
           <t>4882277099</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:31</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44387.87396990741</v>
       </c>
       <c r="I454" t="n">
         <v>14</v>
@@ -33772,10 +32882,8 @@
           <t>4882269418</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:29</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44387.87394675926</v>
       </c>
       <c r="I455" t="n">
         <v>52</v>
@@ -33851,10 +32959,8 @@
           <t>4882276866</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:25</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44387.87390046296</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33922,10 +33028,8 @@
           <t>4882266120</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:21</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44387.87385416667</v>
       </c>
       <c r="I457" t="n">
         <v>3</v>
@@ -33993,10 +33097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:11</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44387.87373842593</v>
       </c>
       <c r="I458" t="n">
         <v>34</v>
@@ -34072,10 +33174,8 @@
           <t>4882271480</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:09</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44387.87371527778</v>
       </c>
       <c r="I459" t="n">
         <v>21</v>
@@ -34151,10 +33251,8 @@
           <t>4882255394</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:07</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44387.87369212963</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34222,10 +33320,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:05</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44387.87366898148</v>
       </c>
       <c r="I461" t="n">
         <v>108</v>
@@ -34293,10 +33389,8 @@
           <t>4882266120</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:58:05</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44387.87366898148</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34356,10 +33450,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:58</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44387.87358796296</v>
       </c>
       <c r="I463" t="n">
         <v>253</v>
@@ -34431,10 +33523,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:54</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44387.87354166667</v>
       </c>
       <c r="I464" t="n">
         <v>323</v>
@@ -34506,10 +33596,8 @@
           <t>4882270781</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:53</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44387.87353009259</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34581,10 +33669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:50</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44387.87349537037</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34652,10 +33738,8 @@
           <t>4882255394</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:47</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44387.87346064814</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34732,10 +33816,8 @@
           <t>4882275295</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:44</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44387.87342592593</v>
       </c>
       <c r="I468" t="n">
         <v>15</v>
@@ -34807,10 +33889,8 @@
           <t>4882267530</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:44</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44387.87342592593</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34878,10 +33958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:41</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44387.87339120371</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34941,10 +34019,8 @@
           <t>4882264580</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:27</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44387.87322916667</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35012,10 +34088,8 @@
           <t>4882266697</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:23</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44387.87318287037</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35088,10 +34162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:15</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44387.87309027778</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35151,10 +34223,8 @@
           <t>4882253544</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:15</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44387.87309027778</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35218,10 +34288,8 @@
           <t>4882264008</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:14</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44387.87307870371</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35289,10 +34357,8 @@
           <t>4882266250</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:12</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44387.87305555555</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35368,10 +34434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:10</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44387.87303240741</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35435,10 +34499,8 @@
           <t>4882263823</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:10</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44387.87303240741</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35514,10 +34576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:08</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44387.87300925926</v>
       </c>
       <c r="I479" t="n">
         <v>5</v>
@@ -35577,10 +34637,8 @@
           <t>4882266120</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:08</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44387.87300925926</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35644,10 +34702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:06</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44387.87298611111</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35723,10 +34779,8 @@
           <t>4882266002</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:05</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44387.87297453704</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35799,10 +34853,8 @@
           <t>4882258702</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:03</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44387.87295138889</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35871,10 +34923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:01</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44387.87292824074</v>
       </c>
       <c r="I484" t="n">
         <v>14</v>
@@ -35951,10 +35001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:57:00</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44387.87291666667</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36026,10 +35074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:55</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44387.8728587963</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36101,10 +35147,8 @@
           <t>4882262579</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:43</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44387.87271990741</v>
       </c>
       <c r="I487" t="n">
         <v>12</v>
@@ -36168,10 +35212,8 @@
           <t>4882262531</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:42</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44387.87270833334</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36244,10 +35286,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:40</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44387.87268518518</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36315,10 +35355,8 @@
           <t>4882262193</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:34</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44387.87261574074</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36394,10 +35432,8 @@
           <t>4882262044</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:31</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44387.87258101852</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -36469,10 +35505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:28</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44387.8725462963</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36540,10 +35574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:24</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44387.8725</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36619,10 +35651,8 @@
           <t>4882261525</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:20</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44387.87245370371</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36690,10 +35720,8 @@
           <t>4882261223</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:13</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44387.87237268518</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36761,10 +35789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:12</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44387.87236111111</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36840,10 +35866,8 @@
           <t>4882256769</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:12</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44387.87236111111</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36919,10 +35943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:06</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44387.87229166667</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36990,10 +36012,8 @@
           <t>4882253544</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:05</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44387.87228009259</v>
       </c>
       <c r="I499" t="n">
         <v>10</v>
@@ -37070,10 +36090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:04</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44387.87226851852</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37141,10 +36159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:56:01</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44387.8722337963</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37208,10 +36224,8 @@
           <t>4882253304</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:59</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44387.87221064815</v>
       </c>
       <c r="I502" t="n">
         <v>5</v>
@@ -37287,10 +36301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:57</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44387.8721875</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37362,10 +36374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:55</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44387.87216435185</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37437,10 +36447,8 @@
           <t>4882260400</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:52</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44387.87212962963</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37512,10 +36520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:51</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44387.87211805556</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37575,10 +36581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:47</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44387.87207175926</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37650,10 +36654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:46</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44387.87206018518</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37730,10 +36732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:44</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44387.87203703704</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37810,10 +36810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:43</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44387.87202546297</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -37889,10 +36887,8 @@
           <t>4882252624</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:43</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44387.87202546297</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37956,10 +36952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:41</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44387.87200231481</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38035,10 +37029,8 @@
           <t>4882255394</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:37</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44387.87195601852</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38115,10 +37107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:35</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44387.87193287037</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38182,10 +37172,8 @@
           <t>4882252233</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:34</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44387.8719212963</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38253,10 +37241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:31</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44387.87188657407</v>
       </c>
       <c r="I516" t="n">
         <v>52</v>
@@ -38322,10 +37308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:28</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44387.87185185185</v>
       </c>
       <c r="I517" t="n">
         <v>2</v>
@@ -38393,10 +37377,8 @@
           <t>4882251993</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:28</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44387.87185185185</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38468,10 +37450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:22</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44387.8717824074</v>
       </c>
       <c r="I519" t="n">
         <v>67</v>
@@ -38543,10 +37523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:20</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44387.87175925926</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38622,10 +37600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:19</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44387.87174768518</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38697,10 +37673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:13</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44387.87167824074</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38768,10 +37742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:06</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44387.87159722222</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38835,10 +37807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:55</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44387.8714699074</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38914,10 +37884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:55</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44387.8714699074</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38977,10 +37945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:54</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44387.87145833333</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -39044,10 +38010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:53</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44387.87144675926</v>
       </c>
       <c r="I527" t="n">
         <v>129</v>
@@ -39115,10 +38079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:52</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44387.87143518519</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39190,10 +38152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:48</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44387.87138888889</v>
       </c>
       <c r="I529" t="n">
         <v>26</v>
@@ -39261,10 +38221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:48</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44387.87138888889</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39336,10 +38294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:45</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44387.87135416667</v>
       </c>
       <c r="I531" t="n">
         <v>97</v>
@@ -39415,10 +38371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:39</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44387.87128472222</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39494,10 +38448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:38</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44387.87127314815</v>
       </c>
       <c r="I533" t="n">
         <v>7</v>
@@ -39574,10 +38526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:37</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44387.87126157407</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39649,10 +38599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:37</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44387.87126157407</v>
       </c>
       <c r="I535" t="n">
         <v>23</v>
@@ -39729,10 +38677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:37</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44387.87126157407</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39800,10 +38746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:37</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44387.87126157407</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39879,10 +38823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:37</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44387.87126157407</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39950,10 +38892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:35</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44387.87123842593</v>
       </c>
       <c r="I539" t="n">
         <v>4</v>
@@ -40017,10 +38957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:35</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44387.87123842593</v>
       </c>
       <c r="I540" t="n">
         <v>6</v>
@@ -40088,10 +39026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:35</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44387.87123842593</v>
       </c>
       <c r="I541" t="n">
         <v>1332</v>
@@ -40167,10 +39103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:31</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44387.87119212963</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40242,10 +39176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:27</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44387.87114583333</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40313,10 +39245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:27</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44387.87114583333</v>
       </c>
       <c r="I544" t="n">
         <v>1108</v>
@@ -40388,10 +39318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:26</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44387.87113425926</v>
       </c>
       <c r="I545" t="n">
         <v>4</v>
@@ -40470,10 +39398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:26</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44387.87113425926</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40545,10 +39471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:18</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44387.87104166667</v>
       </c>
       <c r="I547" t="n">
         <v>255</v>
@@ -40620,10 +39544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:14</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44387.87099537037</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40699,10 +39621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:13</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44387.8709837963</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40774,10 +39694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:12</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44387.87097222222</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40845,10 +39763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:11</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44387.87096064815</v>
       </c>
       <c r="I551" t="n">
         <v>4</v>
@@ -40920,10 +39836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:09</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44387.8709375</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40995,10 +39909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:08</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44387.87092592593</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41066,10 +39978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:54:01</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44387.8708449074</v>
       </c>
       <c r="I554" t="n">
         <v>1</v>
